--- a/biology/Zoologie/Canard_à_queue_pointue/Canard_à_queue_pointue.xlsx
+++ b/biology/Zoologie/Canard_à_queue_pointue/Canard_à_queue_pointue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_queue_pointue</t>
+          <t>Canard_à_queue_pointue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anas georgica
 Le Canard à queue pointue ou pilet à bec jaune (Anas georgica) est une espèce d'oiseaux de la famille des Anatidae. Ce canard de surface est très semblable à la sarcelle tachetée ; il s'en distingue par un cou plus long et par des taches sur les flancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_queue_pointue</t>
+          <t>Canard_à_queue_pointue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des sous-espèces suivantes :
 Anas georgica georgica  Gmelin 1789, le Canard de Géorgie du Sud (ou la Sarcelle de Géorgie du Sud) est endémique de la grande île subantarctique de Géorgie du Sud (3 756 km2) et son archipel, vit également dans le Sud des îles Sandwich, fut l'un des oiseaux notés par James Cook en janvier 1775, à l'occasion du premier débarquement enregistré en Géorgie du Sud et était autrefois considérée comme une espèce à part entière ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_queue_pointue</t>
+          <t>Canard_à_queue_pointue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Canard à queue pointue se reconnaît principalement à son cou et sa tête de couleur brune ainsi qu'à son bec jaune vif traversé d'une ligne noire sur le dessus de la mandibule supérieure ainsi que sur un tiers du tomium inférieur. La queue est brunâtre et effilée. Les ailes sont d'apparence terne, les rémiges primaires étant gris et bruns, et les secondaires gris et blancs avec un large miroir noir aux reflets verdâtres. Le reste du corps est tacheté de brun et de noir (longs rémiges scapulaires), les tâches s'estompent plus ou moins au niveau du ventre, qui peut être entièrement gris pâle voire blanc, selon les individus. Les pattes sont grises.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_queue_pointue</t>
+          <t>Canard_à_queue_pointue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Canard à queue pointue est généralement très silencieux, mais les mâles sont relativement loquaces pendant la période des parades nuptiales. Leur chant nuptial est rauque et étouffé semblable à des coassements, accompagné de trilles plus aiguës. Le cri en vol est un sifflement court, aigu et répété à intervalle régulier, très similaire au son d'un grillon. La femelle produit un cancanement similaire à celui du Canard colvert, légèrement moins grave.
 Ce canard de surface plonge rarement intégralement pour se nourrir, son régime est essentiellement constitué de petits invertébrés aquatiques et de résidus de plantes (graines, racines, herbes et algues...). Il arrive que, dans les habitats d'eau saumâtre (notamment pour la sous-espèce A. G. Georgica en Géorgie du Sud) certains individus profitent de la laisse de mer à la suite des marées pour se nourrir d'amphipodes, de petits mollusques et d'algues marines ; il n'est pas rare que cette pratique se fasse de nuit. Certains individus ont été observés en train de se nourrir de cadavres de manchots ou de phoques.
